--- a/database/industries/zeraat/simorgh/balancesheet/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50721D9F-22EC-4595-80C8-F444B6CD4BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A51256-BE5C-45E9-BA3B-BC670390DFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -52,13 +64,28 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-07-29</t>
+  </si>
+  <si>
+    <t>1400-12-25 (11)</t>
+  </si>
+  <si>
+    <t>1400-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1400-07-13 (2)</t>
+  </si>
+  <si>
     <t>1400-07-28</t>
   </si>
   <si>
-    <t>1401-08-21 (10)</t>
+    <t>1401-12-08 (13)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -67,7 +94,10 @@
     <t>1401-06-13 (2)</t>
   </si>
   <si>
-    <t>1401-08-21 (4)</t>
+    <t>1401-12-07 (6)</t>
+  </si>
+  <si>
+    <t>1401-12-08</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -704,20 +734,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H61"/>
+  <dimension ref="B1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -725,8 +758,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +774,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -747,8 +790,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -756,8 +804,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -767,8 +820,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -778,8 +836,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -787,8 +850,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -808,29 +876,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -838,10 +936,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -849,178 +952,303 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>332076</v>
+      </c>
+      <c r="E12" s="15">
+        <v>816269</v>
+      </c>
+      <c r="F12" s="15">
+        <v>386277</v>
+      </c>
+      <c r="G12" s="15">
+        <v>737743</v>
+      </c>
+      <c r="H12" s="15">
         <v>1991817</v>
       </c>
-      <c r="E12" s="15">
+      <c r="I12" s="15">
         <v>1997299</v>
       </c>
-      <c r="F12" s="15">
+      <c r="J12" s="15">
         <v>998681</v>
       </c>
-      <c r="G12" s="15">
+      <c r="K12" s="15">
         <v>934424</v>
       </c>
-      <c r="H12" s="15">
+      <c r="L12" s="15">
         <v>1160448</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M12" s="15">
+        <v>1053236</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
         <v>32428</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>40735</v>
       </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
         <v>50491</v>
       </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
         <v>48437</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <v>37396</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>636816</v>
+      </c>
+      <c r="E14" s="15">
+        <v>604050</v>
+      </c>
+      <c r="F14" s="15">
+        <v>637902</v>
+      </c>
+      <c r="G14" s="15">
+        <v>523456</v>
+      </c>
+      <c r="H14" s="15">
         <v>640774</v>
       </c>
-      <c r="E14" s="15">
+      <c r="I14" s="15">
         <v>1252928</v>
       </c>
-      <c r="F14" s="15">
+      <c r="J14" s="15">
         <v>1724461</v>
       </c>
-      <c r="G14" s="15">
+      <c r="K14" s="15">
         <v>1903545</v>
       </c>
-      <c r="H14" s="15">
+      <c r="L14" s="15">
         <v>2083154</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="15">
+        <v>2192784</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>1157092</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1222265</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1496262</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1223375</v>
+      </c>
+      <c r="H15" s="11">
         <v>1751894</v>
       </c>
-      <c r="E15" s="11">
+      <c r="I15" s="11">
         <v>1865977</v>
       </c>
-      <c r="F15" s="11">
+      <c r="J15" s="11">
         <v>2066337</v>
       </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
         <v>3754621</v>
       </c>
-      <c r="H15" s="11">
+      <c r="L15" s="11">
         <v>3591050</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M15" s="11">
+        <v>4330985</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>410261</v>
+      </c>
+      <c r="E16" s="15">
+        <v>790696</v>
+      </c>
+      <c r="F16" s="15">
+        <v>876092</v>
+      </c>
+      <c r="G16" s="15">
+        <v>561286</v>
+      </c>
+      <c r="H16" s="15">
         <v>513856</v>
       </c>
-      <c r="E16" s="15">
+      <c r="I16" s="15">
         <v>282021</v>
       </c>
-      <c r="F16" s="15">
+      <c r="J16" s="15">
         <v>330102</v>
       </c>
-      <c r="G16" s="15">
+      <c r="K16" s="15">
         <v>529323</v>
       </c>
-      <c r="H16" s="15">
+      <c r="L16" s="15">
         <v>543900</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M16" s="15">
+        <v>265479</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>1744</v>
+      </c>
+      <c r="E17" s="11">
+        <v>18875</v>
+      </c>
+      <c r="F17" s="11">
+        <v>30824</v>
+      </c>
+      <c r="G17" s="11">
+        <v>36392</v>
+      </c>
+      <c r="H17" s="11">
         <v>42328</v>
       </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>66354</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="15">
+        <v>34</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="15">
         <v>36992</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="15">
+      <c r="J18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="15">
         <v>8238</v>
       </c>
-      <c r="H18" s="15">
+      <c r="L18" s="15">
         <v>70661</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M18" s="15">
+        <v>28147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17">
+        <v>2537989</v>
+      </c>
+      <c r="E19" s="17">
+        <v>3452155</v>
+      </c>
+      <c r="F19" s="17">
+        <v>3427357</v>
+      </c>
+      <c r="G19" s="17">
+        <v>3082252</v>
+      </c>
+      <c r="H19" s="17">
         <v>4973097</v>
       </c>
-      <c r="E19" s="17">
+      <c r="I19" s="17">
         <v>5435217</v>
       </c>
-      <c r="F19" s="17">
+      <c r="J19" s="17">
         <v>5226670</v>
       </c>
-      <c r="G19" s="17">
+      <c r="K19" s="17">
         <v>7180642</v>
       </c>
-      <c r="H19" s="17">
+      <c r="L19" s="17">
         <v>7497650</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M19" s="17">
+        <v>7908027</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1038,115 +1266,205 @@
       <c r="H20" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
+        <v>440830</v>
+      </c>
+      <c r="E21" s="11">
         <v>441150</v>
       </c>
-      <c r="E21" s="11">
+      <c r="F21" s="11">
+        <v>441150</v>
+      </c>
+      <c r="G21" s="11">
+        <v>441150</v>
+      </c>
+      <c r="H21" s="11">
+        <v>441150</v>
+      </c>
+      <c r="I21" s="11">
         <v>1341150</v>
       </c>
-      <c r="F21" s="11">
+      <c r="J21" s="11">
         <v>2741150</v>
       </c>
-      <c r="G21" s="11">
+      <c r="K21" s="11">
         <v>1341150</v>
       </c>
-      <c r="H21" s="11">
+      <c r="L21" s="11">
         <v>2041150</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M21" s="11">
+        <v>1441150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>726741</v>
+      </c>
+      <c r="E22" s="15">
+        <v>936709</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1093429</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1226596</v>
+      </c>
+      <c r="H22" s="15">
         <v>1033778</v>
       </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
         <v>1061974</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>1413648</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1512498</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2009319</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2059871</v>
+      </c>
+      <c r="H23" s="11">
         <v>2179310</v>
       </c>
-      <c r="E23" s="11">
+      <c r="I23" s="11">
         <v>2535549</v>
       </c>
-      <c r="F23" s="11">
+      <c r="J23" s="11">
         <v>2659108</v>
       </c>
-      <c r="G23" s="11">
+      <c r="K23" s="11">
         <v>2845011</v>
       </c>
-      <c r="H23" s="11">
+      <c r="L23" s="11">
         <v>3028813</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M23" s="11">
+        <v>3185736</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>61735</v>
+      </c>
+      <c r="E24" s="15">
+        <v>62411</v>
+      </c>
+      <c r="F24" s="15">
+        <v>65032</v>
+      </c>
+      <c r="G24" s="15">
+        <v>195635</v>
+      </c>
+      <c r="H24" s="15">
         <v>195655</v>
       </c>
-      <c r="E24" s="15">
+      <c r="I24" s="15">
         <v>194342</v>
       </c>
-      <c r="F24" s="15">
+      <c r="J24" s="15">
         <v>194382</v>
       </c>
-      <c r="G24" s="15">
+      <c r="K24" s="15">
         <v>194342</v>
       </c>
-      <c r="H24" s="15">
+      <c r="L24" s="15">
         <v>219379</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M24" s="15">
+        <v>219338</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
@@ -1159,78 +1477,138 @@
         <v>15732</v>
       </c>
       <c r="G26" s="15">
+        <v>15732</v>
+      </c>
+      <c r="H26" s="15">
+        <v>15732</v>
+      </c>
+      <c r="I26" s="15">
+        <v>15732</v>
+      </c>
+      <c r="J26" s="15">
+        <v>15732</v>
+      </c>
+      <c r="K26" s="15">
         <v>69022</v>
       </c>
-      <c r="H26" s="15">
+      <c r="L26" s="15">
         <v>69022</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M26" s="15">
+        <v>15732</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="11">
+        <v>34</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="11">
         <v>1033559</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="J27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="11">
         <v>1451883</v>
       </c>
-      <c r="H27" s="11">
+      <c r="L27" s="11">
         <v>1945810</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M27" s="11">
+        <v>2911362</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19">
+        <v>2658686</v>
+      </c>
+      <c r="E28" s="19">
+        <v>2968500</v>
+      </c>
+      <c r="F28" s="19">
+        <v>3624662</v>
+      </c>
+      <c r="G28" s="19">
+        <v>3938984</v>
+      </c>
+      <c r="H28" s="19">
         <v>3865625</v>
       </c>
-      <c r="E28" s="19">
+      <c r="I28" s="19">
         <v>5120332</v>
       </c>
-      <c r="F28" s="19">
+      <c r="J28" s="19">
         <v>6672346</v>
       </c>
-      <c r="G28" s="19">
+      <c r="K28" s="19">
         <v>5901408</v>
       </c>
-      <c r="H28" s="19">
+      <c r="L28" s="19">
         <v>7304174</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M28" s="19">
+        <v>7773318</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17">
+        <v>5196675</v>
+      </c>
+      <c r="E29" s="17">
+        <v>6420655</v>
+      </c>
+      <c r="F29" s="17">
+        <v>7052019</v>
+      </c>
+      <c r="G29" s="17">
+        <v>7021236</v>
+      </c>
+      <c r="H29" s="17">
         <v>8838722</v>
       </c>
-      <c r="E29" s="17">
+      <c r="I29" s="17">
         <v>10555549</v>
       </c>
-      <c r="F29" s="17">
+      <c r="J29" s="17">
         <v>11899016</v>
       </c>
-      <c r="G29" s="17">
+      <c r="K29" s="17">
         <v>13082050</v>
       </c>
-      <c r="H29" s="17">
+      <c r="L29" s="17">
         <v>14801824</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M29" s="17">
+        <v>15681345</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1238,125 +1616,205 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>575180</v>
+      </c>
+      <c r="E31" s="15">
+        <v>907401</v>
+      </c>
+      <c r="F31" s="15">
+        <v>817119</v>
+      </c>
+      <c r="G31" s="15">
+        <v>691251</v>
+      </c>
+      <c r="H31" s="15">
         <v>941541</v>
       </c>
-      <c r="E31" s="15">
+      <c r="I31" s="15">
         <v>873097</v>
       </c>
-      <c r="F31" s="15">
+      <c r="J31" s="15">
         <v>907473</v>
       </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
         <v>1054707</v>
       </c>
-      <c r="H31" s="15">
+      <c r="L31" s="15">
         <v>1585148</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M31" s="15">
+        <v>2067253</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>55871</v>
+      </c>
+      <c r="E33" s="15">
+        <v>101416</v>
+      </c>
+      <c r="F33" s="15">
+        <v>175813</v>
+      </c>
+      <c r="G33" s="15">
+        <v>92040</v>
+      </c>
+      <c r="H33" s="15">
         <v>74322</v>
       </c>
-      <c r="E33" s="15">
+      <c r="I33" s="15">
         <v>72702</v>
       </c>
-      <c r="F33" s="15">
+      <c r="J33" s="15">
         <v>77554</v>
       </c>
-      <c r="G33" s="15">
+      <c r="K33" s="15">
         <v>89984</v>
       </c>
-      <c r="H33" s="15">
+      <c r="L33" s="15">
         <v>120116</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M33" s="15">
+        <v>74108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>6574</v>
+      </c>
+      <c r="E34" s="11">
+        <v>12843</v>
+      </c>
+      <c r="F34" s="11">
+        <v>12843</v>
+      </c>
+      <c r="G34" s="11">
+        <v>9031</v>
+      </c>
+      <c r="H34" s="11">
         <v>10180</v>
       </c>
-      <c r="E34" s="11">
+      <c r="I34" s="11">
         <v>14189</v>
       </c>
-      <c r="F34" s="11">
+      <c r="J34" s="11">
         <v>8189</v>
       </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11">
         <v>19408</v>
       </c>
-      <c r="H34" s="11">
+      <c r="L34" s="11">
         <v>15649</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M34" s="11">
+        <v>26475</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>224595</v>
+      </c>
+      <c r="E35" s="15">
+        <v>241770</v>
+      </c>
+      <c r="F35" s="15">
+        <v>180889</v>
+      </c>
+      <c r="G35" s="15">
+        <v>457553</v>
+      </c>
+      <c r="H35" s="15">
         <v>455154</v>
       </c>
-      <c r="E35" s="15">
+      <c r="I35" s="15">
         <v>309701</v>
       </c>
-      <c r="F35" s="15">
+      <c r="J35" s="15">
         <v>93329</v>
       </c>
-      <c r="G35" s="15">
+      <c r="K35" s="15">
         <v>1122252</v>
       </c>
-      <c r="H35" s="15">
+      <c r="L35" s="15">
         <v>1121218</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M35" s="15">
+        <v>120009</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
-        <v>0</v>
+        <v>402539</v>
       </c>
       <c r="E36" s="11">
-        <v>0</v>
+        <v>420920</v>
       </c>
       <c r="F36" s="11">
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
@@ -1364,10 +1822,25 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1385,10 +1858,25 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1406,41 +1894,71 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19">
+        <v>1264759</v>
+      </c>
+      <c r="E39" s="19">
+        <v>1684350</v>
+      </c>
+      <c r="F39" s="19">
+        <v>1456664</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1249875</v>
+      </c>
+      <c r="H39" s="19">
         <v>1481197</v>
       </c>
-      <c r="E39" s="19">
+      <c r="I39" s="19">
         <v>1269689</v>
       </c>
-      <c r="F39" s="19">
+      <c r="J39" s="19">
         <v>1086545</v>
       </c>
-      <c r="G39" s="19">
+      <c r="K39" s="19">
         <v>2286351</v>
       </c>
-      <c r="H39" s="19">
+      <c r="L39" s="19">
         <v>2842131</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M39" s="19">
+        <v>2287845</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>0</v>
+        <v>37171</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>26504</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>26504</v>
       </c>
       <c r="G40" s="11">
         <v>0</v>
@@ -1448,31 +1966,61 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1490,73 +2038,133 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
+        <v>105496</v>
+      </c>
+      <c r="E43" s="15">
+        <v>115705</v>
+      </c>
+      <c r="F43" s="15">
+        <v>115254</v>
+      </c>
+      <c r="G43" s="15">
+        <v>150701</v>
+      </c>
+      <c r="H43" s="15">
         <v>151081</v>
       </c>
-      <c r="E43" s="15">
+      <c r="I43" s="15">
         <v>156011</v>
       </c>
-      <c r="F43" s="15">
+      <c r="J43" s="15">
         <v>172635</v>
       </c>
-      <c r="G43" s="15">
+      <c r="K43" s="15">
         <v>240672</v>
       </c>
-      <c r="H43" s="15">
+      <c r="L43" s="15">
         <v>235631</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M43" s="15">
+        <v>243331</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17">
+        <v>142667</v>
+      </c>
+      <c r="E44" s="17">
+        <v>142209</v>
+      </c>
+      <c r="F44" s="17">
+        <v>141758</v>
+      </c>
+      <c r="G44" s="17">
+        <v>150701</v>
+      </c>
+      <c r="H44" s="17">
         <v>151081</v>
       </c>
-      <c r="E44" s="17">
+      <c r="I44" s="17">
         <v>156011</v>
       </c>
-      <c r="F44" s="17">
+      <c r="J44" s="17">
         <v>172635</v>
       </c>
-      <c r="G44" s="17">
+      <c r="K44" s="17">
         <v>240672</v>
       </c>
-      <c r="H44" s="17">
+      <c r="L44" s="17">
         <v>235631</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M44" s="17">
+        <v>243331</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19">
+        <v>1407426</v>
+      </c>
+      <c r="E45" s="19">
+        <v>1826559</v>
+      </c>
+      <c r="F45" s="19">
+        <v>1598422</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1400576</v>
+      </c>
+      <c r="H45" s="19">
         <v>1632278</v>
       </c>
-      <c r="E45" s="19">
+      <c r="I45" s="19">
         <v>1425700</v>
       </c>
-      <c r="F45" s="19">
+      <c r="J45" s="19">
         <v>1259180</v>
       </c>
-      <c r="G45" s="19">
+      <c r="K45" s="19">
         <v>2527023</v>
       </c>
-      <c r="H45" s="19">
+      <c r="L45" s="19">
         <v>3077762</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M45" s="19">
+        <v>2531176</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -1564,10 +2172,15 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1585,31 +2198,61 @@
       <c r="H47" s="15">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>1300000</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1300000</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1300000</v>
+      </c>
+      <c r="L47" s="15">
+        <v>1300000</v>
+      </c>
+      <c r="M47" s="15">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
         <v>8705</v>
       </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
         <v>30452</v>
       </c>
-      <c r="H48" s="11">
+      <c r="L48" s="11">
         <v>29352</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M48" s="11">
+        <v>28730</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1627,52 +2270,97 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-111615</v>
+      </c>
+      <c r="H50" s="11">
         <v>-94684</v>
       </c>
-      <c r="E50" s="11">
+      <c r="I50" s="11">
         <v>-124800</v>
       </c>
-      <c r="F50" s="11">
+      <c r="J50" s="11">
         <v>-95175</v>
       </c>
-      <c r="G50" s="11">
+      <c r="K50" s="11">
         <v>-106214</v>
       </c>
-      <c r="H50" s="11">
+      <c r="L50" s="11">
         <v>-115678</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M50" s="11">
+        <v>-121334</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
+        <v>0</v>
+      </c>
+      <c r="E51" s="15">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15">
         <v>5804</v>
       </c>
-      <c r="E51" s="15">
-        <v>0</v>
-      </c>
-      <c r="F51" s="15">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
         <v>11607</v>
       </c>
-      <c r="G51" s="15">
-        <v>0</v>
-      </c>
-      <c r="H51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
@@ -1690,10 +2378,25 @@
       <c r="H52" s="11">
         <v>130000</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="11">
+        <v>130000</v>
+      </c>
+      <c r="J52" s="11">
+        <v>130000</v>
+      </c>
+      <c r="K52" s="11">
+        <v>130000</v>
+      </c>
+      <c r="L52" s="11">
+        <v>130000</v>
+      </c>
+      <c r="M52" s="11">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1711,31 +2414,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1753,31 +2486,61 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15">
@@ -1790,76 +2553,136 @@
         <v>0</v>
       </c>
       <c r="G57" s="15">
-        <v>0</v>
+        <v>-2185</v>
       </c>
       <c r="H57" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="15">
+        <v>0</v>
+      </c>
+      <c r="J57" s="15">
+        <v>0</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
+        <v>0</v>
+      </c>
+      <c r="M57" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11">
+        <v>2359249</v>
+      </c>
+      <c r="E58" s="11">
+        <v>3164096</v>
+      </c>
+      <c r="F58" s="11">
+        <v>4023597</v>
+      </c>
+      <c r="G58" s="11">
+        <v>4304460</v>
+      </c>
+      <c r="H58" s="11">
         <v>5865325</v>
       </c>
-      <c r="E58" s="11">
+      <c r="I58" s="11">
         <v>7815944</v>
       </c>
-      <c r="F58" s="11">
+      <c r="J58" s="11">
         <v>9293404</v>
       </c>
-      <c r="G58" s="11">
+      <c r="K58" s="11">
         <v>9200789</v>
       </c>
-      <c r="H58" s="11">
+      <c r="L58" s="11">
         <v>10380388</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M58" s="11">
+        <v>11812773</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="18" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19">
+        <v>3789249</v>
+      </c>
+      <c r="E59" s="19">
+        <v>4594096</v>
+      </c>
+      <c r="F59" s="19">
+        <v>5453597</v>
+      </c>
+      <c r="G59" s="19">
+        <v>5620660</v>
+      </c>
+      <c r="H59" s="19">
         <v>7206445</v>
       </c>
-      <c r="E59" s="19">
+      <c r="I59" s="19">
         <v>9129849</v>
       </c>
-      <c r="F59" s="19">
+      <c r="J59" s="19">
         <v>10639836</v>
       </c>
-      <c r="G59" s="19">
+      <c r="K59" s="19">
         <v>10555027</v>
       </c>
-      <c r="H59" s="19">
+      <c r="L59" s="19">
         <v>11724062</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M59" s="19">
+        <v>13150169</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17">
+        <v>5196675</v>
+      </c>
+      <c r="E60" s="17">
+        <v>6420655</v>
+      </c>
+      <c r="F60" s="17">
+        <v>7052019</v>
+      </c>
+      <c r="G60" s="17">
+        <v>7021236</v>
+      </c>
+      <c r="H60" s="17">
         <v>8838723</v>
       </c>
-      <c r="E60" s="17">
+      <c r="I60" s="17">
         <v>10555549</v>
       </c>
-      <c r="F60" s="17">
+      <c r="J60" s="17">
         <v>11899016</v>
       </c>
-      <c r="G60" s="17">
+      <c r="K60" s="17">
         <v>13082050</v>
       </c>
-      <c r="H60" s="17">
+      <c r="L60" s="17">
         <v>14801824</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M60" s="17">
+        <v>15681345</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1867,6 +2690,11 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/zeraat/simorgh/balancesheet/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A51256-BE5C-45E9-BA3B-BC670390DFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD530C22-F6DF-4EB3-97D2-15F526518B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-07-29</t>
-  </si>
-  <si>
     <t>1400-12-25 (11)</t>
   </si>
   <si>
@@ -85,7 +82,7 @@
     <t>1400-07-28</t>
   </si>
   <si>
-    <t>1401-12-08 (13)</t>
+    <t>1402-01-29 (14)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -94,10 +91,13 @@
     <t>1401-06-13 (2)</t>
   </si>
   <si>
-    <t>1401-12-07 (6)</t>
-  </si>
-  <si>
-    <t>1401-12-08</t>
+    <t>1401-12-03 (5)</t>
+  </si>
+  <si>
+    <t>1402-01-29 (4)</t>
+  </si>
+  <si>
+    <t>1402-01-29</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -738,19 +738,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -764,7 +764,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -796,7 +796,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -810,7 +810,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -856,7 +856,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -892,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -928,7 +928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -942,7 +942,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -958,43 +958,43 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>332076</v>
+        <v>816269</v>
       </c>
       <c r="E12" s="15">
-        <v>816269</v>
+        <v>386277</v>
       </c>
       <c r="F12" s="15">
-        <v>386277</v>
+        <v>737743</v>
       </c>
       <c r="G12" s="15">
-        <v>737743</v>
+        <v>1991817</v>
       </c>
       <c r="H12" s="15">
-        <v>1991817</v>
+        <v>1997299</v>
       </c>
       <c r="I12" s="15">
-        <v>1997299</v>
+        <v>998681</v>
       </c>
       <c r="J12" s="15">
-        <v>998681</v>
+        <v>934424</v>
       </c>
       <c r="K12" s="15">
-        <v>934424</v>
+        <v>1160448</v>
       </c>
       <c r="L12" s="15">
-        <v>1160448</v>
+        <v>1053236</v>
       </c>
       <c r="M12" s="15">
-        <v>1053236</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1167436</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1009,160 +1009,160 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>32428</v>
       </c>
       <c r="H13" s="11">
-        <v>32428</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>40735</v>
       </c>
       <c r="J13" s="11">
-        <v>40735</v>
+        <v>50491</v>
       </c>
       <c r="K13" s="11">
-        <v>50491</v>
+        <v>48437</v>
       </c>
       <c r="L13" s="11">
-        <v>48437</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>37396</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>636816</v>
+        <v>604050</v>
       </c>
       <c r="E14" s="15">
-        <v>604050</v>
+        <v>637902</v>
       </c>
       <c r="F14" s="15">
-        <v>637902</v>
+        <v>523456</v>
       </c>
       <c r="G14" s="15">
-        <v>523456</v>
+        <v>640774</v>
       </c>
       <c r="H14" s="15">
-        <v>640774</v>
+        <v>1252928</v>
       </c>
       <c r="I14" s="15">
-        <v>1252928</v>
+        <v>1724461</v>
       </c>
       <c r="J14" s="15">
-        <v>1724461</v>
+        <v>1903545</v>
       </c>
       <c r="K14" s="15">
-        <v>1903545</v>
+        <v>2083154</v>
       </c>
       <c r="L14" s="15">
-        <v>2083154</v>
+        <v>2406897</v>
       </c>
       <c r="M14" s="15">
-        <v>2192784</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3058433</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>1157092</v>
+        <v>1222265</v>
       </c>
       <c r="E15" s="11">
-        <v>1222265</v>
+        <v>1496262</v>
       </c>
       <c r="F15" s="11">
-        <v>1496262</v>
+        <v>1223375</v>
       </c>
       <c r="G15" s="11">
-        <v>1223375</v>
+        <v>1751894</v>
       </c>
       <c r="H15" s="11">
-        <v>1751894</v>
+        <v>1865977</v>
       </c>
       <c r="I15" s="11">
-        <v>1865977</v>
+        <v>2066337</v>
       </c>
       <c r="J15" s="11">
-        <v>2066337</v>
+        <v>3754621</v>
       </c>
       <c r="K15" s="11">
-        <v>3754621</v>
+        <v>3591050</v>
       </c>
       <c r="L15" s="11">
-        <v>3591050</v>
+        <v>4330985</v>
       </c>
       <c r="M15" s="11">
-        <v>4330985</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3799649</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>410261</v>
+        <v>790696</v>
       </c>
       <c r="E16" s="15">
-        <v>790696</v>
+        <v>876092</v>
       </c>
       <c r="F16" s="15">
-        <v>876092</v>
+        <v>561286</v>
       </c>
       <c r="G16" s="15">
-        <v>561286</v>
+        <v>513856</v>
       </c>
       <c r="H16" s="15">
-        <v>513856</v>
+        <v>282021</v>
       </c>
       <c r="I16" s="15">
-        <v>282021</v>
+        <v>330102</v>
       </c>
       <c r="J16" s="15">
-        <v>330102</v>
+        <v>529323</v>
       </c>
       <c r="K16" s="15">
-        <v>529323</v>
+        <v>543900</v>
       </c>
       <c r="L16" s="15">
-        <v>543900</v>
+        <v>251058</v>
       </c>
       <c r="M16" s="15">
-        <v>265479</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>489262</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>1744</v>
+        <v>18875</v>
       </c>
       <c r="E17" s="11">
-        <v>18875</v>
+        <v>30824</v>
       </c>
       <c r="F17" s="11">
-        <v>30824</v>
+        <v>36392</v>
       </c>
       <c r="G17" s="11">
-        <v>36392</v>
+        <v>42328</v>
       </c>
       <c r="H17" s="11">
-        <v>42328</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>0</v>
+        <v>66354</v>
       </c>
       <c r="J17" s="11">
-        <v>66354</v>
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1191,62 +1191,62 @@
       <c r="G18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="H18" s="15">
         <v>36992</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>34</v>
+      <c r="I18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="15">
+        <v>8238</v>
       </c>
       <c r="K18" s="15">
-        <v>8238</v>
+        <v>70661</v>
       </c>
       <c r="L18" s="15">
-        <v>70661</v>
+        <v>28147</v>
       </c>
       <c r="M18" s="15">
-        <v>28147</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>51964</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17">
-        <v>2537989</v>
+        <v>3452155</v>
       </c>
       <c r="E19" s="17">
-        <v>3452155</v>
+        <v>3427357</v>
       </c>
       <c r="F19" s="17">
-        <v>3427357</v>
+        <v>3082252</v>
       </c>
       <c r="G19" s="17">
-        <v>3082252</v>
+        <v>4973097</v>
       </c>
       <c r="H19" s="17">
-        <v>4973097</v>
+        <v>5435217</v>
       </c>
       <c r="I19" s="17">
-        <v>5435217</v>
+        <v>5226670</v>
       </c>
       <c r="J19" s="17">
-        <v>5226670</v>
+        <v>7180642</v>
       </c>
       <c r="K19" s="17">
-        <v>7180642</v>
+        <v>7497650</v>
       </c>
       <c r="L19" s="17">
-        <v>7497650</v>
+        <v>8070323</v>
       </c>
       <c r="M19" s="17">
-        <v>7908027</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>8566744</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
@@ -1282,13 +1282,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
-        <v>440830</v>
+        <v>441150</v>
       </c>
       <c r="E21" s="11">
         <v>441150</v>
@@ -1300,49 +1300,49 @@
         <v>441150</v>
       </c>
       <c r="H21" s="11">
+        <v>1341150</v>
+      </c>
+      <c r="I21" s="11">
+        <v>2741150</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1341150</v>
+      </c>
+      <c r="K21" s="11">
+        <v>2041150</v>
+      </c>
+      <c r="L21" s="11">
+        <v>1441150</v>
+      </c>
+      <c r="M21" s="11">
         <v>441150</v>
       </c>
-      <c r="I21" s="11">
-        <v>1341150</v>
-      </c>
-      <c r="J21" s="11">
-        <v>2741150</v>
-      </c>
-      <c r="K21" s="11">
-        <v>1341150</v>
-      </c>
-      <c r="L21" s="11">
-        <v>2041150</v>
-      </c>
-      <c r="M21" s="11">
-        <v>1441150</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>726741</v>
+        <v>936709</v>
       </c>
       <c r="E22" s="15">
-        <v>936709</v>
+        <v>1093429</v>
       </c>
       <c r="F22" s="15">
-        <v>1093429</v>
+        <v>1226596</v>
       </c>
       <c r="G22" s="15">
-        <v>1226596</v>
+        <v>1033778</v>
       </c>
       <c r="H22" s="15">
-        <v>1033778</v>
+        <v>0</v>
       </c>
       <c r="I22" s="15">
-        <v>0</v>
+        <v>1061974</v>
       </c>
       <c r="J22" s="15">
-        <v>1061974</v>
+        <v>0</v>
       </c>
       <c r="K22" s="15">
         <v>0</v>
@@ -1354,79 +1354,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>1413648</v>
+        <v>1512498</v>
       </c>
       <c r="E23" s="11">
-        <v>1512498</v>
+        <v>2009319</v>
       </c>
       <c r="F23" s="11">
-        <v>2009319</v>
+        <v>2059871</v>
       </c>
       <c r="G23" s="11">
-        <v>2059871</v>
+        <v>2179310</v>
       </c>
       <c r="H23" s="11">
-        <v>2179310</v>
+        <v>2535549</v>
       </c>
       <c r="I23" s="11">
-        <v>2535549</v>
+        <v>2659108</v>
       </c>
       <c r="J23" s="11">
-        <v>2659108</v>
+        <v>2845011</v>
       </c>
       <c r="K23" s="11">
-        <v>2845011</v>
+        <v>3028813</v>
       </c>
       <c r="L23" s="11">
-        <v>3028813</v>
+        <v>3185736</v>
       </c>
       <c r="M23" s="11">
-        <v>3185736</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3452245</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>61735</v>
+        <v>62411</v>
       </c>
       <c r="E24" s="15">
-        <v>62411</v>
+        <v>65032</v>
       </c>
       <c r="F24" s="15">
-        <v>65032</v>
+        <v>195635</v>
       </c>
       <c r="G24" s="15">
-        <v>195635</v>
+        <v>195655</v>
       </c>
       <c r="H24" s="15">
-        <v>195655</v>
+        <v>194342</v>
       </c>
       <c r="I24" s="15">
+        <v>194382</v>
+      </c>
+      <c r="J24" s="15">
         <v>194342</v>
       </c>
-      <c r="J24" s="15">
-        <v>194382</v>
-      </c>
       <c r="K24" s="15">
-        <v>194342</v>
+        <v>219379</v>
       </c>
       <c r="L24" s="15">
-        <v>219379</v>
+        <v>219338</v>
       </c>
       <c r="M24" s="15">
-        <v>219338</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>219612</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>42</v>
       </c>
@@ -1486,19 +1486,19 @@
         <v>15732</v>
       </c>
       <c r="J26" s="15">
-        <v>15732</v>
+        <v>69022</v>
       </c>
       <c r="K26" s="15">
         <v>69022</v>
       </c>
       <c r="L26" s="15">
-        <v>69022</v>
+        <v>15732</v>
       </c>
       <c r="M26" s="15">
         <v>15732</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>43</v>
       </c>
@@ -1515,98 +1515,98 @@
       <c r="G27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="H27" s="11">
         <v>1033559</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>34</v>
+      <c r="I27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1451883</v>
       </c>
       <c r="K27" s="11">
-        <v>1451883</v>
+        <v>1945810</v>
       </c>
       <c r="L27" s="11">
-        <v>1945810</v>
+        <v>2911362</v>
       </c>
       <c r="M27" s="11">
-        <v>2911362</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3582000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19">
-        <v>2658686</v>
+        <v>2968500</v>
       </c>
       <c r="E28" s="19">
-        <v>2968500</v>
+        <v>3624662</v>
       </c>
       <c r="F28" s="19">
-        <v>3624662</v>
+        <v>3938984</v>
       </c>
       <c r="G28" s="19">
-        <v>3938984</v>
+        <v>3865625</v>
       </c>
       <c r="H28" s="19">
-        <v>3865625</v>
+        <v>5120332</v>
       </c>
       <c r="I28" s="19">
-        <v>5120332</v>
+        <v>6672346</v>
       </c>
       <c r="J28" s="19">
-        <v>6672346</v>
+        <v>5901408</v>
       </c>
       <c r="K28" s="19">
-        <v>5901408</v>
+        <v>7304174</v>
       </c>
       <c r="L28" s="19">
-        <v>7304174</v>
+        <v>7773318</v>
       </c>
       <c r="M28" s="19">
-        <v>7773318</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7710739</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17">
-        <v>5196675</v>
+        <v>6420655</v>
       </c>
       <c r="E29" s="17">
-        <v>6420655</v>
+        <v>7052019</v>
       </c>
       <c r="F29" s="17">
-        <v>7052019</v>
+        <v>7021236</v>
       </c>
       <c r="G29" s="17">
-        <v>7021236</v>
+        <v>8838722</v>
       </c>
       <c r="H29" s="17">
-        <v>8838722</v>
+        <v>10555549</v>
       </c>
       <c r="I29" s="17">
-        <v>10555549</v>
+        <v>11899016</v>
       </c>
       <c r="J29" s="17">
-        <v>11899016</v>
+        <v>13082050</v>
       </c>
       <c r="K29" s="17">
-        <v>13082050</v>
+        <v>14801824</v>
       </c>
       <c r="L29" s="17">
-        <v>14801824</v>
+        <v>15843641</v>
       </c>
       <c r="M29" s="17">
-        <v>15681345</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>16277483</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>46</v>
       </c>
@@ -1622,43 +1622,43 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>575180</v>
+        <v>907401</v>
       </c>
       <c r="E31" s="15">
-        <v>907401</v>
+        <v>817119</v>
       </c>
       <c r="F31" s="15">
-        <v>817119</v>
+        <v>691251</v>
       </c>
       <c r="G31" s="15">
-        <v>691251</v>
+        <v>941541</v>
       </c>
       <c r="H31" s="15">
-        <v>941541</v>
+        <v>873097</v>
       </c>
       <c r="I31" s="15">
-        <v>873097</v>
+        <v>907473</v>
       </c>
       <c r="J31" s="15">
-        <v>907473</v>
+        <v>1054707</v>
       </c>
       <c r="K31" s="15">
-        <v>1054707</v>
+        <v>1585148</v>
       </c>
       <c r="L31" s="15">
-        <v>1585148</v>
+        <v>2175093</v>
       </c>
       <c r="M31" s="15">
-        <v>2067253</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1872144</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1694,127 +1694,127 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>55871</v>
+        <v>101416</v>
       </c>
       <c r="E33" s="15">
-        <v>101416</v>
+        <v>175813</v>
       </c>
       <c r="F33" s="15">
-        <v>175813</v>
+        <v>92040</v>
       </c>
       <c r="G33" s="15">
-        <v>92040</v>
+        <v>74322</v>
       </c>
       <c r="H33" s="15">
-        <v>74322</v>
+        <v>72702</v>
       </c>
       <c r="I33" s="15">
-        <v>72702</v>
+        <v>77554</v>
       </c>
       <c r="J33" s="15">
-        <v>77554</v>
+        <v>89984</v>
       </c>
       <c r="K33" s="15">
-        <v>89984</v>
+        <v>120116</v>
       </c>
       <c r="L33" s="15">
-        <v>120116</v>
+        <v>74108</v>
       </c>
       <c r="M33" s="15">
-        <v>74108</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>60477</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>6574</v>
+        <v>12843</v>
       </c>
       <c r="E34" s="11">
         <v>12843</v>
       </c>
       <c r="F34" s="11">
-        <v>12843</v>
+        <v>9031</v>
       </c>
       <c r="G34" s="11">
-        <v>9031</v>
+        <v>10180</v>
       </c>
       <c r="H34" s="11">
-        <v>10180</v>
+        <v>14189</v>
       </c>
       <c r="I34" s="11">
-        <v>14189</v>
+        <v>8189</v>
       </c>
       <c r="J34" s="11">
-        <v>8189</v>
+        <v>19408</v>
       </c>
       <c r="K34" s="11">
-        <v>19408</v>
+        <v>15649</v>
       </c>
       <c r="L34" s="11">
-        <v>15649</v>
+        <v>26475</v>
       </c>
       <c r="M34" s="11">
-        <v>26475</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>25181</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>224595</v>
+        <v>241770</v>
       </c>
       <c r="E35" s="15">
-        <v>241770</v>
+        <v>180889</v>
       </c>
       <c r="F35" s="15">
-        <v>180889</v>
+        <v>457553</v>
       </c>
       <c r="G35" s="15">
-        <v>457553</v>
+        <v>455154</v>
       </c>
       <c r="H35" s="15">
-        <v>455154</v>
+        <v>309701</v>
       </c>
       <c r="I35" s="15">
-        <v>309701</v>
+        <v>93329</v>
       </c>
       <c r="J35" s="15">
-        <v>93329</v>
+        <v>1122252</v>
       </c>
       <c r="K35" s="15">
-        <v>1122252</v>
+        <v>1121218</v>
       </c>
       <c r="L35" s="15">
-        <v>1121218</v>
+        <v>120009</v>
       </c>
       <c r="M35" s="15">
-        <v>120009</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>108336</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
-        <v>402539</v>
+        <v>420920</v>
       </c>
       <c r="E36" s="11">
-        <v>420920</v>
+        <v>270000</v>
       </c>
       <c r="F36" s="11">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1910,55 +1910,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19">
-        <v>1264759</v>
+        <v>1684350</v>
       </c>
       <c r="E39" s="19">
-        <v>1684350</v>
+        <v>1456664</v>
       </c>
       <c r="F39" s="19">
-        <v>1456664</v>
+        <v>1249875</v>
       </c>
       <c r="G39" s="19">
-        <v>1249875</v>
+        <v>1481197</v>
       </c>
       <c r="H39" s="19">
-        <v>1481197</v>
+        <v>1269689</v>
       </c>
       <c r="I39" s="19">
-        <v>1269689</v>
+        <v>1086545</v>
       </c>
       <c r="J39" s="19">
-        <v>1086545</v>
+        <v>2286351</v>
       </c>
       <c r="K39" s="19">
-        <v>2286351</v>
+        <v>2842131</v>
       </c>
       <c r="L39" s="19">
-        <v>2842131</v>
+        <v>2395685</v>
       </c>
       <c r="M39" s="19">
-        <v>2287845</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2066138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>37171</v>
+        <v>26504</v>
       </c>
       <c r="E40" s="11">
         <v>26504</v>
       </c>
       <c r="F40" s="11">
-        <v>26504</v>
+        <v>0</v>
       </c>
       <c r="G40" s="11">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2054,115 +2054,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
-        <v>105496</v>
+        <v>115705</v>
       </c>
       <c r="E43" s="15">
-        <v>115705</v>
+        <v>115254</v>
       </c>
       <c r="F43" s="15">
-        <v>115254</v>
+        <v>150701</v>
       </c>
       <c r="G43" s="15">
-        <v>150701</v>
+        <v>151081</v>
       </c>
       <c r="H43" s="15">
-        <v>151081</v>
+        <v>156011</v>
       </c>
       <c r="I43" s="15">
-        <v>156011</v>
+        <v>172635</v>
       </c>
       <c r="J43" s="15">
-        <v>172635</v>
+        <v>240672</v>
       </c>
       <c r="K43" s="15">
-        <v>240672</v>
+        <v>235631</v>
       </c>
       <c r="L43" s="15">
-        <v>235631</v>
+        <v>243331</v>
       </c>
       <c r="M43" s="15">
-        <v>243331</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>247173</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17">
-        <v>142667</v>
+        <v>142209</v>
       </c>
       <c r="E44" s="17">
-        <v>142209</v>
+        <v>141758</v>
       </c>
       <c r="F44" s="17">
-        <v>141758</v>
+        <v>150701</v>
       </c>
       <c r="G44" s="17">
-        <v>150701</v>
+        <v>151081</v>
       </c>
       <c r="H44" s="17">
-        <v>151081</v>
+        <v>156011</v>
       </c>
       <c r="I44" s="17">
-        <v>156011</v>
+        <v>172635</v>
       </c>
       <c r="J44" s="17">
-        <v>172635</v>
+        <v>240672</v>
       </c>
       <c r="K44" s="17">
-        <v>240672</v>
+        <v>235631</v>
       </c>
       <c r="L44" s="17">
-        <v>235631</v>
+        <v>243331</v>
       </c>
       <c r="M44" s="17">
-        <v>243331</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>247173</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19">
-        <v>1407426</v>
+        <v>1826559</v>
       </c>
       <c r="E45" s="19">
-        <v>1826559</v>
+        <v>1598422</v>
       </c>
       <c r="F45" s="19">
-        <v>1598422</v>
+        <v>1400576</v>
       </c>
       <c r="G45" s="19">
-        <v>1400576</v>
+        <v>1632278</v>
       </c>
       <c r="H45" s="19">
-        <v>1632278</v>
+        <v>1425700</v>
       </c>
       <c r="I45" s="19">
-        <v>1425700</v>
+        <v>1259180</v>
       </c>
       <c r="J45" s="19">
-        <v>1259180</v>
+        <v>2527023</v>
       </c>
       <c r="K45" s="19">
-        <v>2527023</v>
+        <v>3077762</v>
       </c>
       <c r="L45" s="19">
-        <v>3077762</v>
+        <v>2639016</v>
       </c>
       <c r="M45" s="19">
-        <v>2531176</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2313311</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>62</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2232,25 +2232,25 @@
         <v>0</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
+        <v>8705</v>
       </c>
       <c r="I48" s="11">
-        <v>8705</v>
+        <v>0</v>
       </c>
       <c r="J48" s="11">
-        <v>0</v>
+        <v>30452</v>
       </c>
       <c r="K48" s="11">
-        <v>30452</v>
+        <v>29352</v>
       </c>
       <c r="L48" s="11">
-        <v>29352</v>
+        <v>28730</v>
       </c>
       <c r="M48" s="11">
-        <v>28730</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>32388</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2298,31 +2298,31 @@
         <v>0</v>
       </c>
       <c r="F50" s="11">
-        <v>0</v>
+        <v>-111615</v>
       </c>
       <c r="G50" s="11">
-        <v>-111615</v>
+        <v>-94684</v>
       </c>
       <c r="H50" s="11">
-        <v>-94684</v>
+        <v>-124800</v>
       </c>
       <c r="I50" s="11">
-        <v>-124800</v>
+        <v>-95175</v>
       </c>
       <c r="J50" s="11">
-        <v>-95175</v>
+        <v>-106214</v>
       </c>
       <c r="K50" s="11">
-        <v>-106214</v>
+        <v>-115678</v>
       </c>
       <c r="L50" s="11">
-        <v>-115678</v>
+        <v>-121334</v>
       </c>
       <c r="M50" s="11">
-        <v>-121334</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-91987</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="G51" s="15">
-        <v>0</v>
+        <v>5804</v>
       </c>
       <c r="H51" s="15">
-        <v>5804</v>
+        <v>0</v>
       </c>
       <c r="I51" s="15">
-        <v>0</v>
+        <v>11607</v>
       </c>
       <c r="J51" s="15">
-        <v>11607</v>
+        <v>0</v>
       </c>
       <c r="K51" s="15">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>73</v>
       </c>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="F57" s="15">
-        <v>0</v>
+        <v>-2185</v>
       </c>
       <c r="G57" s="15">
-        <v>-2185</v>
+        <v>0</v>
       </c>
       <c r="H57" s="15">
         <v>0</v>
@@ -2574,115 +2574,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11">
-        <v>2359249</v>
+        <v>3164096</v>
       </c>
       <c r="E58" s="11">
-        <v>3164096</v>
+        <v>4023597</v>
       </c>
       <c r="F58" s="11">
-        <v>4023597</v>
+        <v>4304460</v>
       </c>
       <c r="G58" s="11">
-        <v>4304460</v>
+        <v>5865325</v>
       </c>
       <c r="H58" s="11">
-        <v>5865325</v>
+        <v>7815944</v>
       </c>
       <c r="I58" s="11">
-        <v>7815944</v>
+        <v>9293404</v>
       </c>
       <c r="J58" s="11">
-        <v>9293404</v>
+        <v>9200789</v>
       </c>
       <c r="K58" s="11">
-        <v>9200789</v>
+        <v>10380388</v>
       </c>
       <c r="L58" s="11">
-        <v>10380388</v>
+        <v>11867229</v>
       </c>
       <c r="M58" s="11">
-        <v>11812773</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12593771</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19">
-        <v>3789249</v>
+        <v>4594096</v>
       </c>
       <c r="E59" s="19">
-        <v>4594096</v>
+        <v>5453597</v>
       </c>
       <c r="F59" s="19">
-        <v>5453597</v>
+        <v>5620660</v>
       </c>
       <c r="G59" s="19">
-        <v>5620660</v>
+        <v>7206445</v>
       </c>
       <c r="H59" s="19">
-        <v>7206445</v>
+        <v>9129849</v>
       </c>
       <c r="I59" s="19">
-        <v>9129849</v>
+        <v>10639836</v>
       </c>
       <c r="J59" s="19">
-        <v>10639836</v>
+        <v>10555027</v>
       </c>
       <c r="K59" s="19">
-        <v>10555027</v>
+        <v>11724062</v>
       </c>
       <c r="L59" s="19">
-        <v>11724062</v>
+        <v>13204625</v>
       </c>
       <c r="M59" s="19">
-        <v>13150169</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13964172</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17">
-        <v>5196675</v>
+        <v>6420655</v>
       </c>
       <c r="E60" s="17">
-        <v>6420655</v>
+        <v>7052019</v>
       </c>
       <c r="F60" s="17">
-        <v>7052019</v>
+        <v>7021236</v>
       </c>
       <c r="G60" s="17">
-        <v>7021236</v>
+        <v>8838723</v>
       </c>
       <c r="H60" s="17">
-        <v>8838723</v>
+        <v>10555549</v>
       </c>
       <c r="I60" s="17">
-        <v>10555549</v>
+        <v>11899016</v>
       </c>
       <c r="J60" s="17">
-        <v>11899016</v>
+        <v>13082050</v>
       </c>
       <c r="K60" s="17">
-        <v>13082050</v>
+        <v>14801824</v>
       </c>
       <c r="L60" s="17">
-        <v>14801824</v>
+        <v>15843641</v>
       </c>
       <c r="M60" s="17">
-        <v>15681345</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+        <v>16277483</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
